--- a/root_node/exact/datos_verificacion_relu_1como7.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como7.xlsx
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.9747443199157715</v>
+        <v>0.05031013488769531</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
       </c>
       <c r="G1" t="n">
-        <v>0.535910806655146</v>
+        <v>0.5359016482778426</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
@@ -461,13 +461,13 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.8915705680847168</v>
+        <v>0.04868149757385254</v>
       </c>
       <c r="L1" t="n">
         <v>1</v>
       </c>
       <c r="M1" t="n">
-        <v>0.5359108066551126</v>
+        <v>0.5359016482778258</v>
       </c>
       <c r="N1" t="inlineStr">
         <is>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>0.9328172206878662</v>
+        <v>0.04895997047424316</v>
       </c>
       <c r="R1" t="n">
         <v>1</v>
       </c>
       <c r="S1" t="n">
-        <v>0.5359108066551126</v>
+        <v>0.5359016482778258</v>
       </c>
       <c r="T1" t="inlineStr">
         <is>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9148094654083252</v>
+        <v>0.100193977355957</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3489.601784790616</v>
+        <v>4413.656497468086</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.8479776382446289</v>
+        <v>0.09975814819335938</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>216.341611932522</v>
+        <v>4413.656497468161</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.8782792091369629</v>
+        <v>0.09970736503601074</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>3489.601784790623</v>
+        <v>4413.656497467972</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7757086753845215</v>
+        <v>0.0651545524597168</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.671188804603396</v>
+        <v>7.400733273388316</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.8315441608428955</v>
+        <v>0.06514382362365723</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>7.671188804603396</v>
+        <v>7.400733273388349</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.7765719890594482</v>
+        <v>0.06537771224975586</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>7.671188804603396</v>
+        <v>7.400733273388349</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.187503099441528</v>
+        <v>0.17909836769104</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>528.8523276757711</v>
+        <v>528.8508977319974</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1.344305276870728</v>
+        <v>0.1782071590423584</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>528.8523276757682</v>
+        <v>528.8508977319966</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.404014110565186</v>
+        <v>0.1781527996063232</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>528.8523276757679</v>
+        <v>528.8508977319958</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1420376300811768</v>
+        <v>0.03799891471862793</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1602087020874023</v>
+        <v>0.03856658935546875</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.2569599151611328</v>
+        <v>0.03775548934936523</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.202538251876831</v>
+        <v>0.08734750747680664</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>99.99999992483592</v>
+        <v>70.70106322340656</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1.249597787857056</v>
+        <v>0.08701419830322266</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>99.99999992483593</v>
+        <v>70.70106322340656</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>2.236086368560791</v>
+        <v>0.08678770065307617</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>99.99999992483593</v>
+        <v>70.70106322340656</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9774570465087891</v>
+        <v>0.1023862361907959</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>7.432415326541061</v>
+        <v>7.432404487305869</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.9907042980194092</v>
+        <v>0.1028621196746826</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>7.432415326541077</v>
+        <v>7.432404487305888</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.9829230308532715</v>
+        <v>0.1027274131774902</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>7.432415326541077</v>
+        <v>7.432404487305888</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.919274806976318</v>
+        <v>0.3247272968292236</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>308.7622286563857</v>
+        <v>172.2093420936789</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>3.836395740509033</v>
+        <v>0.3266158103942871</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>308.7622286563851</v>
+        <v>172.209342093679</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>4.041466951370239</v>
+        <v>0.3265647888183594</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>308.7622286563856</v>
+        <v>172.209342093679</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.275210857391357</v>
+        <v>0.1113579273223877</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>10.19653926503612</v>
+        <v>10.1965362123091</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.306092739105225</v>
+        <v>0.110623836517334</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>10.19653926503609</v>
+        <v>10.19653621230912</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>1.29462194442749</v>
+        <v>0.09941291809082031</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>10.19654760554124</v>
+        <v>10.19653621230912</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,17 +1184,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7.941861152648926</v>
+        <v>0.2338910102844238</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>100.2913024450476</v>
+        <v>89.71426047881469</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.796771049499512</v>
+        <v>0.2078042030334473</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>89.85128922108348</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1232,17 +1232,17 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>5.207611799240112</v>
+        <v>0.2044334411621094</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>89.50516985784468</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.080185174942017</v>
+        <v>0.2382631301879883</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>28.33048421730788</v>
+        <v>28.3304454172146</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1.096934080123901</v>
+        <v>0.2364084720611572</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>28.33048421730807</v>
+        <v>28.33044541721505</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>1.076007843017578</v>
+        <v>0.2369751930236816</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>28.33048421730809</v>
+        <v>28.33044541721481</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.036046028137207</v>
+        <v>0.4832055568695068</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>121.2032993725379</v>
+        <v>113.8958976554676</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3.412678718566895</v>
+        <v>0.4668591022491455</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>121.2032993725379</v>
+        <v>112.7210006732273</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>3.453278541564941</v>
+        <v>0.4835035800933838</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>123.1616120572955</v>
+        <v>113.0153866613143</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>

--- a/root_node/exact/datos_verificacion_relu_1como7.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +592,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -669,6 +681,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +770,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -835,6 +859,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -918,6 +948,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1001,6 +1037,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1084,6 +1126,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1167,6 +1215,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1250,6 +1304,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1333,6 +1393,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1412,6 +1478,1296 @@
         </is>
       </c>
       <c r="U12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.05087161064147949</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5359016482778426</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04949164390563965</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5359016482778258</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.04982089996337891</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5359016482778258</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0282282829284668</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1012847423553467</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4413.656497468086</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.101318359375</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4413.656497468161</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.10154128074646</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4413.656497467972</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06140613555908203</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>22.16324977249493</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0659642219543457</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.400733273388316</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.06581473350524902</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.400733273388349</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.06562471389770508</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.400733273388349</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>0.05134177207946777</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.711428555987228</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1819388866424561</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>528.8508977319974</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1802380084991455</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>528.8508977319966</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1812214851379395</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>528.8508977319958</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>0.1172201633453369</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>56.53827835855619</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.03863096237182617</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.03864789009094238</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.03924846649169922</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01833510398864746</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1667511463165283</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>70.70106322340656</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.08877730369567871</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>70.70106322340656</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.08871722221374512</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>70.70106322340656</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04814624786376953</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1046261787414551</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.432404487305869</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1042325496673584</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.432404487305888</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1049153804779053</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.432404487305888</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>0.08530807495117188</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>5.535641782579797</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3298614025115967</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>172.2093420936789</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3306338787078857</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>172.209342093679</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3304381370544434</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>172.209342093679</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>0.1853122711181641</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1220.813872424982</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1120975017547607</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.1965362123091</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.11275315284729</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>10.19653621230912</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1015105247497559</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10.19653621230912</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>0.07596683502197266</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.01986718180622852</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2369999885559082</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>89.71426047881469</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2112095355987549</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>89.85128922108348</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2508392333984375</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>89.50516985784468</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0.1298666000366211</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.09310773704804363</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2406773567199707</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>28.3304454172146</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2399311065673828</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28.33044541721505</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2416880130767822</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>28.33044541721481</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1354269981384277</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.690499372008707</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4911913871765137</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>113.8958976554676</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4727039337158203</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>112.7210006732273</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.492678165435791</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>113.0153866613143</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>0.262284517288208</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>144.1589737494959</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/exact/datos_verificacion_relu_1como7.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,6 +2773,642 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03526115417480469</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08105731010437012</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8730.146719912887</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06244564056396484</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.400733273388316</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1760914325714111</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>514.9929716636149</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0369107723236084</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.08026266098022461</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>66.2990020824202</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1102118492126465</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7.159092690508178</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.304304838180542</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>160.9594280238107</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.124591588973999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.814770245862261</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2136483192443848</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>86.04999351983157</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1875579357147217</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16.27948187486189</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4986147880554199</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>113.9094400143484</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
